--- a/data/scheduling_DNN/predict/0.5/result14.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result14.xlsx
@@ -570,10 +570,10 @@
         <v>1.345715045928955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4039739370346069</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6915965676307678</v>
+        <v>0.8868763446807861</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.987407922744751</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4978554546833038</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4032460451126099</v>
+        <v>0.2396616190671921</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8763220310211182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.5078525543212891</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2450812458992004</v>
+        <v>0.1357697546482086</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8639001846313477</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.858846127986908</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2432474792003632</v>
+        <v>2.554348793637473e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8687620162963867</v>
       </c>
       <c r="V6" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4245266020298004</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1255502104759216</v>
+        <v>0.197345107793808</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9155158996582031</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4221873879432678</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01158301439136267</v>
+        <v>0.2433730214834213</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8634848594665527</v>
       </c>
       <c r="V8" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8638117909431458</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1289963871240616</v>
+        <v>1.068841868345771e-07</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8695731163024902</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8816786408424377</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00754458736628294</v>
+        <v>0.0001465437235310674</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8628039360046387</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.3975153863430023</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2110914885997772</v>
+        <v>0.2164934277534485</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9171528816223145</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.500470757484436</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1410346925258636</v>
+        <v>0.1736239939928055</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8765158653259277</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8845699429512024</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1123165786266327</v>
+        <v>6.48681671009399e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.868718147277832</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8918788433074951</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1346027702093124</v>
+        <v>0.0005364178214222193</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8583629131317139</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.3991354405879974</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2068026065826416</v>
+        <v>0.2108898758888245</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9310882091522217</v>
       </c>
       <c r="V15" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4039601981639862</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06711667031049728</v>
+        <v>0.2778639197349548</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8773579597473145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8736479878425598</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00481388857588172</v>
+        <v>1.376389172946801e-05</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8647699356079102</v>
       </c>
       <c r="V17" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8719859719276428</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04401774331927299</v>
+        <v>5.207118010730483e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8744280338287354</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.5149226784706116</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1372784376144409</v>
+        <v>0.1292441040277481</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9127380847930908</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.3975412845611572</v>
       </c>
       <c r="W19" t="n">
-        <v>0.158989354968071</v>
+        <v>0.2654277384281158</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8755068778991699</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5089430809020996</v>
       </c>
       <c r="W20" t="n">
-        <v>0.111633412539959</v>
+        <v>0.1343690156936646</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8596181869506836</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4909490644931793</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1190866380929947</v>
+        <v>0.1359169185161591</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5362558364868164</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.490889310836792</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06966380774974823</v>
+        <v>0.002058121608570218</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5232980251312256</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4036789536476135</v>
       </c>
       <c r="W23" t="n">
-        <v>0.000124160447739996</v>
+        <v>0.01430872268974781</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5704472064971924</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8620513081550598</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01257437653839588</v>
+        <v>0.08503295481204987</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8660953640937805</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03206278756260872</v>
+        <v>0.1130750477313995</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5187051296234131</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8724415898323059</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01213475782424212</v>
+        <v>0.1251294761896133</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142600536346436</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.3975545763969421</v>
       </c>
       <c r="W27" t="n">
-        <v>0.004327163100242615</v>
+        <v>0.01362016797065735</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183601379394531</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.5070144534111023</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0003417176194489002</v>
+        <v>0.0001287245540879667</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.6102530956268311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8725828528404236</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04286304861307144</v>
+        <v>0.0688169002532959</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5426290035247803</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4038093984127045</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01939279772341251</v>
+        <v>0.0192708820104599</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5323190689086914</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.3975441455841064</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004368189722299576</v>
+        <v>0.01816428080201149</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.527468204498291</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8764907717704773</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02920839563012123</v>
+        <v>0.1218167543411255</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5373749732971191</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.5090030431747437</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1685065776109695</v>
+        <v>0.0008049664320424199</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5325329303741455</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.513278067111969</v>
       </c>
       <c r="W34" t="n">
-        <v>2.421818862785585e-05</v>
+        <v>0.000370749767171219</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.515254020690918</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8978050351142883</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0002958397672045976</v>
+        <v>0.1463452726602554</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5134789943695068</v>
       </c>
       <c r="V36" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4028756320476532</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1871497929096222</v>
+        <v>0.01223310362547636</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5142660140991211</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8704933524131775</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08738545328378677</v>
+        <v>0.1268979161977768</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5169304609298706</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01865800097584724</v>
+        <v>2.002265375722345e-08</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5109829902648926</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8620801568031311</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01734056696295738</v>
+        <v>0.123269222676754</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5651049613952637</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4942468404769897</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02605991438031197</v>
+        <v>0.00502087315544486</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5218288898468018</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.8727385401725769</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02925500646233559</v>
+        <v>0.1231375858187675</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3943610191345215</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8807323575019836</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07149990648031235</v>
+        <v>0.2365570813417435</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4247729778289795</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.493358314037323</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1484845131635666</v>
+        <v>0.004703948274254799</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3884561061859131</v>
       </c>
       <c r="V44" t="n">
-        <v>0.534324586391449</v>
+        <v>0.3991277813911438</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02127761393785477</v>
+        <v>0.0001138846491812728</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3862631320953369</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8646286129951477</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03045607171952724</v>
+        <v>0.2288335263729095</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.435978889465332</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4928645193576813</v>
       </c>
       <c r="W46" t="n">
-        <v>0.006179391872137785</v>
+        <v>0.003235974814742804</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3998401165008545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4134120941162109</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01891416497528553</v>
+        <v>0.0001841985795181245</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3892931938171387</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4938883781433105</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1760643720626831</v>
+        <v>0.01094015222042799</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.400209903717041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8614344000816345</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05849748477339745</v>
+        <v>0.2127280384302139</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3860089778900146</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.3975887894630432</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0652000904083252</v>
+        <v>0.000134092042571865</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8648619055747986</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08053797483444214</v>
+        <v>0.2271349430084229</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4066839218139648</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4982056617736816</v>
       </c>
       <c r="W52" t="n">
-        <v>9.22086928767385e-06</v>
+        <v>0.008376228623092175</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3861160278320312</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8764186501502991</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07214102149009705</v>
+        <v>0.2403966635465622</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3782820701599121</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4965388178825378</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07095935940742493</v>
+        <v>0.01398465875536203</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3865640163421631</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8694064617156982</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001279957708902657</v>
+        <v>0.2331368327140808</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3872730731964111</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.5027282238006592</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01644343137741089</v>
+        <v>0.01332989148795605</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3972070217132568</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8914399743080139</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01374220196157694</v>
+        <v>0.2442662119865417</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3849449157714844</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.893394410610199</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01660916954278946</v>
+        <v>0.2585209012031555</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3890719413757324</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4965057969093323</v>
       </c>
       <c r="W59" t="n">
-        <v>0.156029224395752</v>
+        <v>0.01154203340411186</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3862390518188477</v>
       </c>
       <c r="V60" t="n">
-        <v>0.514474630355835</v>
+        <v>0.3992985188961029</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0164443626999855</v>
+        <v>0.0001705496833892539</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881721496582031</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4943127632141113</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01577041484415531</v>
+        <v>0.01126583013683558</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8955211639404297</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.3975687623023987</v>
       </c>
       <c r="W62" t="n">
-        <v>0.007301731966435909</v>
+        <v>0.2479565888643265</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8631269931793213</v>
       </c>
       <c r="V63" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8685267567634583</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1034965515136719</v>
+        <v>2.915744698839262e-05</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688340187072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8728814125061035</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1162300854921341</v>
+        <v>1.638139656279236e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8604331016540527</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8933036327362061</v>
       </c>
       <c r="W65" t="n">
-        <v>0.008307961747050285</v>
+        <v>0.001080471789464355</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8587489128112793</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.862440288066864</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04152101650834084</v>
+        <v>1.36262515297858e-05</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8572161197662354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8630248308181763</v>
       </c>
       <c r="W67" t="n">
-        <v>0.205961212515831</v>
+        <v>3.374112566234544e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9626810550689697</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4987617135047913</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02319380082190037</v>
+        <v>0.2152211517095566</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8611769676208496</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8713943362236023</v>
       </c>
       <c r="W69" t="n">
-        <v>0.106734000146389</v>
+        <v>0.0001043946176650934</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.862170934677124</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8618347644805908</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1694300174713135</v>
+        <v>1.130104010371724e-07</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8902289867401123</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8774461150169373</v>
       </c>
       <c r="W71" t="n">
-        <v>0.236812636256218</v>
+        <v>0.0001634018117329106</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8750150203704834</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4104991257190704</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1670535355806351</v>
+        <v>0.2157750129699707</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.3975050747394562</v>
       </c>
       <c r="W73" t="n">
-        <v>0.006323409266769886</v>
+        <v>0.2164957076311111</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8447420597076416</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.8749703168869019</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1945580393075943</v>
+        <v>0.0009137475281022489</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8534009456634521</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8750420808792114</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2023317217826843</v>
+        <v>0.0004683387232944369</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8705079555511475</v>
       </c>
       <c r="V76" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8740530610084534</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2394403368234634</v>
+        <v>1.256777250091545e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8589661121368408</v>
       </c>
       <c r="V77" t="n">
-        <v>0.944080114364624</v>
+        <v>0.5131661891937256</v>
       </c>
       <c r="W77" t="n">
-        <v>0.007244393229484558</v>
+        <v>0.1195775866508484</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8608081340789795</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4892641305923462</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1270498186349869</v>
+        <v>0.1380449533462524</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8817679882049561</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3975289463996887</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05077285319566727</v>
+        <v>0.2344874441623688</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8577489852905273</v>
       </c>
       <c r="V80" t="n">
-        <v>0.350784033536911</v>
+        <v>0.515450656414032</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2570134401321411</v>
+        <v>0.1171681433916092</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8687119483947754</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4836514294147491</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2162293344736099</v>
+        <v>0.1482716053724289</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5876569747924805</v>
       </c>
       <c r="V82" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4226593375205994</v>
       </c>
       <c r="W82" t="n">
-        <v>0.1323487460613251</v>
+        <v>0.02722422033548355</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5335731506347656</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.402851790189743</v>
       </c>
       <c r="W83" t="n">
-        <v>0.08237190544605255</v>
+        <v>0.01708807423710823</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5711660385131836</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4900850057601929</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01507062464952469</v>
+        <v>0.00657413387671113</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5159878730773926</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4220702052116394</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01652210578322411</v>
+        <v>0.008820528164505959</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5124921798706055</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.3991692662239075</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0006098832236602902</v>
+        <v>0.01284208241850138</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125231742858887</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4970793724060059</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01577349938452244</v>
+        <v>0.0002385110128670931</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096480846405029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.3990801870822906</v>
       </c>
       <c r="W88" t="n">
-        <v>0.07465382665395737</v>
+        <v>0.01222526002675295</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149860382080078</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3975727558135986</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02069627679884434</v>
+        <v>0.01378587912768126</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.553192138671875</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.899086058139801</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01885283179581165</v>
+        <v>0.1196426004171371</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5147140026092529</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4959288239479065</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0001412118435837328</v>
+        <v>0.0003528829256538302</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5151410102844238</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4235669076442719</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0270120594650507</v>
+        <v>0.008385816588997841</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5155580043792725</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4109103381633759</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01252203714102507</v>
+        <v>0.01095113437622786</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.511322021484375</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5257011651992798</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01977539993822575</v>
+        <v>0.0002067597670247778</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5636990070343018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4962916672229767</v>
       </c>
       <c r="W95" t="n">
-        <v>0.06164209544658661</v>
+        <v>0.004543749615550041</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.515470027923584</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4187906980514526</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0001272410881938413</v>
+        <v>0.009346893057227135</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5204191207885742</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4872529804706573</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0262653436511755</v>
+        <v>0.001099992892704904</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5164110660552979</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8779868483543396</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02759453468024731</v>
+        <v>0.1307370513677597</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5523090362548828</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.5405306816101074</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006056365673430264</v>
+        <v>0.0001387296360917389</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5100729465484619</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8815491795539856</v>
       </c>
       <c r="W100" t="n">
-        <v>0.187056764960289</v>
+        <v>0.1379945874214172</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5222830772399902</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5411381721496582</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02941216714680195</v>
+        <v>0.0003555146104190499</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4022181034088135</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8628934025764465</v>
       </c>
       <c r="W102" t="n">
-        <v>0.02550794743001461</v>
+        <v>0.2122217267751694</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3961238861083984</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8641183972358704</v>
       </c>
       <c r="W103" t="n">
-        <v>0.004913313779979944</v>
+        <v>0.2190188616514206</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3876838684082031</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8778859972953796</v>
       </c>
       <c r="W104" t="n">
-        <v>0.00808118749409914</v>
+        <v>0.2402981221675873</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3888521194458008</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8663223385810852</v>
       </c>
       <c r="W105" t="n">
-        <v>7.670793274883181e-05</v>
+        <v>0.2279778122901917</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V106" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4098113179206848</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1562903970479965</v>
+        <v>0.0004682123253587633</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4411871433258057</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8630148768424988</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04025094211101532</v>
+        <v>0.1779386401176453</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3865039348602295</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.868389904499054</v>
       </c>
       <c r="W108" t="n">
-        <v>0.04082751274108887</v>
+        <v>0.232214093208313</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5130380392074585</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1768089532852173</v>
+        <v>0.01599772833287716</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3853218555450439</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4894555509090424</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0769997164607048</v>
+        <v>0.01084382645785809</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3883469104766846</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8814088106155396</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0002254915743833408</v>
+        <v>0.2431100308895111</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.392676830291748</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4992658495903015</v>
       </c>
       <c r="W112" t="n">
-        <v>0.007215540390461683</v>
+        <v>0.01136121898889542</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4127299785614014</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4011200070381165</v>
       </c>
       <c r="W113" t="n">
-        <v>0.01661464013159275</v>
+        <v>0.0001347914367215708</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390765905380249</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8982676267623901</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1675334870815277</v>
+        <v>0.2575579881668091</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3889501094818115</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4105096757411957</v>
       </c>
       <c r="W115" t="n">
-        <v>0.00145667209289968</v>
+        <v>0.0004648148897103965</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.388559103012085</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4228666126728058</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01573103666305542</v>
+        <v>0.001177005236968398</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897700309753418</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4010971188545227</v>
       </c>
       <c r="W117" t="n">
-        <v>0.3054459691047668</v>
+        <v>0.00012830292689614</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4111719131469727</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8749191761016846</v>
       </c>
       <c r="W118" t="n">
-        <v>0.001551952329464257</v>
+        <v>0.2150615304708481</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3885760307312012</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8625803589820862</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001428217045031488</v>
+        <v>0.224680095911026</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4004120826721191</v>
       </c>
       <c r="V120" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5132052898406982</v>
       </c>
       <c r="W120" t="n">
-        <v>0.06439134478569031</v>
+        <v>0.0127223078161478</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3879258632659912</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4993717074394226</v>
       </c>
       <c r="W121" t="n">
-        <v>0.08679640293121338</v>
+        <v>0.01242017652839422</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671731948852539</v>
       </c>
       <c r="V122" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8913398385047913</v>
       </c>
       <c r="W122" t="n">
-        <v>0.04435994848608971</v>
+        <v>0.0005840266821905971</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9329860210418701</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.5177491307258606</v>
       </c>
       <c r="W123" t="n">
-        <v>0.175127238035202</v>
+        <v>0.1724216789007187</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9328370094299316</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.8998568058013916</v>
       </c>
       <c r="W124" t="n">
-        <v>0.06219359114766121</v>
+        <v>0.001087693846784532</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8684320449829102</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8749773502349854</v>
       </c>
       <c r="W125" t="n">
-        <v>0.0293497946113348</v>
+        <v>4.284102033125237e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8656630516052246</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.8607543110847473</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2396028488874435</v>
+        <v>2.409573426120915e-05</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8604040145874023</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8607548475265503</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2086213529109955</v>
+        <v>1.230837511911886e-07</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9113059043884277</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.49317666888237</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2121900171041489</v>
+        <v>0.1748320609331131</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8533439636230469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4899687767028809</v>
       </c>
       <c r="W129" t="n">
-        <v>0.02435512654483318</v>
+        <v>0.1320415288209915</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8740639686584473</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.8676595091819763</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2485247254371643</v>
+        <v>4.10171014664229e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8608500957489014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4114561378955841</v>
       </c>
       <c r="W131" t="n">
-        <v>0.002860202686861157</v>
+        <v>0.2019549310207367</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9182729721069336</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5132198929786682</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01087106019258499</v>
+        <v>0.1640679985284805</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8799760341644287</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.493153303861618</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2549585998058319</v>
+        <v>0.1496318280696869</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8519749641418457</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3974915742874146</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2511906921863556</v>
+        <v>0.2065551578998566</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8819501399993896</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5131687521934509</v>
       </c>
       <c r="W135" t="n">
-        <v>0.08608464151620865</v>
+        <v>0.1359997093677521</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9134500026702881</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.9006344676017761</v>
       </c>
       <c r="W136" t="n">
-        <v>0.06588321924209595</v>
+        <v>0.0001642379356781021</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8670570850372314</v>
       </c>
       <c r="V137" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4015945792198181</v>
       </c>
       <c r="W137" t="n">
-        <v>0.006947590503841639</v>
+        <v>0.2166553437709808</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8597350120544434</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4229538142681122</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1263265013694763</v>
+        <v>0.1907778084278107</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8647799491882324</v>
       </c>
       <c r="V139" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8618760108947754</v>
       </c>
       <c r="W139" t="n">
-        <v>0.006703705526888371</v>
+        <v>8.432857612206135e-06</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9140892028808594</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8927291035652161</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1242656335234642</v>
+        <v>0.000456253852462396</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8625450134277344</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8812562823295593</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2619132995605469</v>
+        <v>0.0003501115716062486</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5616960525512695</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8798832893371582</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02499564178287983</v>
+        <v>0.1012431159615517</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5180881023406982</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.3990923166275024</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0181637667119503</v>
+        <v>0.01415999699383974</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5174250602722168</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8573654294013977</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0003875895927194506</v>
+        <v>0.1155594512820244</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5671308040618896</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4037455916404724</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02679858170449734</v>
+        <v>0.02669472806155682</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5147268772125244</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4863409101963043</v>
       </c>
       <c r="W146" t="n">
-        <v>0.004394762217998505</v>
+        <v>0.0008057631202973425</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4096177816390991</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0213107094168663</v>
+        <v>0.01373494975268841</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5184540748596191</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4027332663536072</v>
       </c>
       <c r="W148" t="n">
-        <v>9.873657290881965e-06</v>
+        <v>0.01339130569249392</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5170118808746338</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4949311017990112</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0004008866380900145</v>
+        <v>0.000487560813780874</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5172688961029053</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4904723763465881</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01859675347805023</v>
+        <v>0.0007180534885264933</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5147850513458252</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8782975673675537</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004128356464207172</v>
+        <v>0.1321413516998291</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5102519989013672</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8777568340301514</v>
       </c>
       <c r="W152" t="n">
-        <v>0.03531082719564438</v>
+        <v>0.1350598037242889</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8660160303115845</v>
       </c>
       <c r="W153" t="n">
-        <v>0.007225918583571911</v>
+        <v>0.1230493783950806</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5149040222167969</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5163934230804443</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01239198725670576</v>
+        <v>2.218314875790384e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5177440643310547</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4907931089401245</v>
       </c>
       <c r="W155" t="n">
-        <v>0.000557482591830194</v>
+        <v>0.0007263540173880756</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5733518600463867</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.3975521624088287</v>
       </c>
       <c r="W156" t="n">
-        <v>0.03919176757335663</v>
+        <v>0.03090553358197212</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.517146110534668</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5004226565361023</v>
       </c>
       <c r="W157" t="n">
-        <v>7.956518857099582e-06</v>
+        <v>0.000279673928162083</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V158" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4025933742523193</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02102786302566528</v>
+        <v>0.01385814044624567</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5063948631286621</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4988710284233093</v>
       </c>
       <c r="W159" t="n">
-        <v>0.001208978588692844</v>
+        <v>5.660808892571367e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5173289775848389</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.402088463306427</v>
       </c>
       <c r="W160" t="n">
-        <v>0.005104880314320326</v>
+        <v>0.01328037586063147</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5147650241851807</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.3991698324680328</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01615337654948235</v>
+        <v>0.01336224842816591</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3929789066314697</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.514015793800354</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01205433439463377</v>
+        <v>0.01464992761611938</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3891658782958984</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4235202968120575</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01549671217799187</v>
+        <v>0.001180226099677384</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.385962963104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4935449361801147</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01653823629021645</v>
+        <v>0.01157388091087341</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3929691314697266</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5169225931167603</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02811167389154434</v>
+        <v>0.01536446064710617</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.389599084854126</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.3990936279296875</v>
       </c>
       <c r="W166" t="n">
-        <v>0.001507214386947453</v>
+        <v>9.014634997583926e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3901979923248291</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8616546988487244</v>
       </c>
       <c r="W167" t="n">
-        <v>0.07004163414239883</v>
+        <v>0.2222714275121689</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4414951801300049</v>
       </c>
       <c r="V168" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4028365015983582</v>
       </c>
       <c r="W168" t="n">
-        <v>0.2526866495609283</v>
+        <v>0.00149449345190078</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3884539604187012</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4957950115203857</v>
       </c>
       <c r="W169" t="n">
-        <v>0.182858407497406</v>
+        <v>0.01152210123836994</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3920168876647949</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.3975788354873657</v>
       </c>
       <c r="W170" t="n">
-        <v>0.08443599194288254</v>
+        <v>3.093526538577862e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.403884619474411</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001509730820544064</v>
+        <v>0.0002030220202868804</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3904209136962891</v>
       </c>
       <c r="V172" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4913632869720459</v>
       </c>
       <c r="W172" t="n">
-        <v>0.3107743561267853</v>
+        <v>0.01018936280161142</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3872849941253662</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4093807935714722</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02082850597798824</v>
+        <v>0.0004882243520114571</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4283440113067627</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4028066694736481</v>
       </c>
       <c r="W174" t="n">
-        <v>0.06461150944232941</v>
+        <v>0.000652155838906765</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3907978534698486</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5162106156349182</v>
       </c>
       <c r="W175" t="n">
-        <v>0.308547168970108</v>
+        <v>0.01572836004197598</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927590847015381</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8615853786468506</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0001370756654068828</v>
+        <v>0.2197980880737305</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4013140201568604</v>
       </c>
       <c r="V177" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.8759635090827942</v>
       </c>
       <c r="W177" t="n">
-        <v>0.1631870418787003</v>
+        <v>0.2252921313047409</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V178" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4039943516254425</v>
       </c>
       <c r="W178" t="n">
-        <v>0.3036471009254456</v>
+        <v>7.850632391637191e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4187941551208496</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4862909615039825</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001891001011244953</v>
+        <v>0.00455581909045577</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3924510478973389</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4920674264431</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01512581016868353</v>
+        <v>0.009923422709107399</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4055678844451904</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8491260409355164</v>
       </c>
       <c r="W181" t="n">
-        <v>0.009703051298856735</v>
+        <v>0.196743831038475</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8647129535675049</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.5160033702850342</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2126354575157166</v>
+        <v>0.1215983703732491</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9081459045410156</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4235372841358185</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2838412523269653</v>
+        <v>0.2348455190658569</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8820559978485107</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.410039484500885</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1435417234897614</v>
+        <v>0.2227995842695236</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.928225040435791</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.3975452780723572</v>
       </c>
       <c r="W185" t="n">
-        <v>0.08188529312610626</v>
+        <v>0.2816210091114044</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8666789531707764</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8745471239089966</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05078811198472977</v>
+        <v>6.19081110926345e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8676369190216064</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4097772836685181</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2153078466653824</v>
+        <v>0.2096354514360428</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.866962194442749</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8735320568084717</v>
       </c>
       <c r="W188" t="n">
-        <v>0.133345827460289</v>
+        <v>4.31630905950442e-05</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9142131805419922</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4884139597415924</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1443557441234589</v>
+        <v>0.1813049763441086</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8514430522918701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.3975425958633423</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1207989007234573</v>
+        <v>0.206025630235672</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8759050369262695</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.4010644555091858</v>
       </c>
       <c r="W191" t="n">
-        <v>0.0479758232831955</v>
+        <v>0.2254735827445984</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8611991405487061</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.3975799083709717</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1468012779951096</v>
+        <v>0.2149427980184555</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9125330448150635</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.3975559771060944</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2593322098255157</v>
+        <v>0.2652014195919037</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8510849475860596</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.8715975284576416</v>
       </c>
       <c r="W194" t="n">
-        <v>0.03848869353532791</v>
+        <v>0.000420765980379656</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8673090934753418</v>
       </c>
       <c r="V195" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8749374747276306</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2673016488552094</v>
+        <v>5.819219950353727e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.857590913772583</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8663080930709839</v>
       </c>
       <c r="W196" t="n">
-        <v>0.125419944524765</v>
+        <v>7.598921365570277e-05</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9213190078735352</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4948865473270416</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1967099159955978</v>
+        <v>0.181844636797905</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8710238933563232</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3976883888244629</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1340178251266479</v>
+        <v>0.2240464985370636</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8738658428192139</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4904949069023132</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08945021033287048</v>
+        <v>0.1469732671976089</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8592610359191895</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.397561103105545</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04697762802243233</v>
+        <v>0.2131668329238892</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9118239879608154</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5130441188812256</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1702145934104919</v>
+        <v>0.1590253859758377</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5207359790802002</v>
       </c>
       <c r="V202" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8619789481163025</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01847202330827713</v>
+        <v>0.1164467632770538</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5160939693450928</v>
       </c>
       <c r="V203" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4224034547805786</v>
       </c>
       <c r="W203" t="n">
-        <v>0.07149799168109894</v>
+        <v>0.008777912706136703</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5255649089813232</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8691227436065674</v>
       </c>
       <c r="W204" t="n">
-        <v>4.411595000419766e-05</v>
+        <v>0.1180319860577583</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5180530548095703</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4987608194351196</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02707087807357311</v>
+        <v>0.0003721903485711664</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5711450576782227</v>
       </c>
       <c r="V206" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.8675937056541443</v>
       </c>
       <c r="W206" t="n">
-        <v>0.1389932632446289</v>
+        <v>0.08788180351257324</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5177149772644043</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4011145234107971</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0002735515881795436</v>
+        <v>0.01359566580504179</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.516556978225708</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.3975705802440643</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01966804638504982</v>
+        <v>0.01415776275098324</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5095701217651367</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8744682669639587</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0112285278737545</v>
+        <v>0.133150652050972</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5178558826446533</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4038155972957611</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02736609242856503</v>
+        <v>0.01300518680363894</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5198121070861816</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.492274671792984</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004776781890541315</v>
+        <v>0.0007583103142678738</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5202188491821289</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8910672068595886</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0003859484859276563</v>
+        <v>0.1375285089015961</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.519014835357666</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.5284428596496582</v>
       </c>
       <c r="W213" t="n">
-        <v>2.60965243796818e-05</v>
+        <v>8.888763841241598e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5110161304473877</v>
       </c>
       <c r="V214" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.863764226436615</v>
       </c>
       <c r="W214" t="n">
-        <v>0.1861584782600403</v>
+        <v>0.1244312226772308</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5210390090942383</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4986734986305237</v>
       </c>
       <c r="W215" t="n">
-        <v>0.003031698754057288</v>
+        <v>0.0005002160323783755</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5213079452514648</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8649761080741882</v>
       </c>
       <c r="W216" t="n">
-        <v>0.000353369046933949</v>
+        <v>0.1181078031659126</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5739490985870361</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8577094674110413</v>
       </c>
       <c r="W217" t="n">
-        <v>0.009665675461292267</v>
+        <v>0.08051994442939758</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5124390125274658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.5139450430870056</v>
       </c>
       <c r="W218" t="n">
-        <v>0.1848845779895782</v>
+        <v>2.268128127980162e-06</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5183022022247314</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4235706925392151</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002688615932129323</v>
+        <v>0.008974058553576469</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5118379592895508</v>
       </c>
       <c r="V220" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5079370737075806</v>
       </c>
       <c r="W220" t="n">
-        <v>0.07344256341457367</v>
+        <v>1.521690865047276e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5178840160369873</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4036721587181091</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01871752366423607</v>
+        <v>0.01304434798657894</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4116332828998566</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06395358592271805</v>
+        <v>0.0005503800348378718</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3896100521087646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.423685222864151</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0131280655041337</v>
+        <v>0.001161117223091424</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3896338939666748</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.5079673528671265</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01539535913616419</v>
+        <v>0.01400280743837357</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3891198635101318</v>
       </c>
       <c r="V225" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.5003005266189575</v>
       </c>
       <c r="W225" t="n">
-        <v>0.155101552605629</v>
+        <v>0.01236113999038935</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3885128498077393</v>
       </c>
       <c r="V226" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8644528985023499</v>
       </c>
       <c r="W226" t="n">
-        <v>0.08050449192523956</v>
+        <v>0.2265189290046692</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3948509693145752</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8996758460998535</v>
       </c>
       <c r="W227" t="n">
-        <v>0.006852386053651571</v>
+        <v>0.2548481523990631</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3942828178405762</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.405335932970047</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01780016161501408</v>
+        <v>0.0001221713609993458</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4447550773620605</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4109180569648743</v>
       </c>
       <c r="W229" t="n">
-        <v>0.04476843401789665</v>
+        <v>0.001144943991675973</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3939578533172607</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4114980399608612</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03794704750180244</v>
+        <v>0.0003076581342611462</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.394899845123291</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4218503832817078</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01422057673335075</v>
+        <v>0.0007263314910233021</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3950669765472412</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.3975286483764648</v>
       </c>
       <c r="W232" t="n">
-        <v>0.001961573027074337</v>
+        <v>6.059828137949808e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4166078567504883</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4986297488212585</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001667649950832129</v>
+        <v>0.006727590691298246</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3936431407928467</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5127754211425781</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01201348099857569</v>
+        <v>0.01419250015169382</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4413671493530273</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.402213990688324</v>
       </c>
       <c r="W235" t="n">
-        <v>0.003808433189988136</v>
+        <v>0.0015329698799178</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4010059833526611</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4027723670005798</v>
       </c>
       <c r="W236" t="n">
-        <v>0.07348870486021042</v>
+        <v>3.120111159660155e-06</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923790454864502</v>
       </c>
       <c r="V237" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5131525993347168</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02218048647046089</v>
+        <v>0.01458625122904778</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3835799694061279</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4036611914634705</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01492698770016432</v>
+        <v>0.0004032554861623794</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3897740840911865</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4121402204036713</v>
       </c>
       <c r="W239" t="n">
-        <v>0.04772069305181503</v>
+        <v>0.0005002440302632749</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3865330219268799</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8748229742050171</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01323662977665663</v>
+        <v>0.238427072763443</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3851449489593506</v>
       </c>
       <c r="V241" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8872672915458679</v>
       </c>
       <c r="W241" t="n">
-        <v>0.3164313435554504</v>
+        <v>0.2521268427371979</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9108250141143799</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8790350556373596</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2117468267679214</v>
+        <v>0.001010601408779621</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8838629722595215</v>
       </c>
       <c r="V243" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.3975968658924103</v>
       </c>
       <c r="W243" t="n">
-        <v>0.009990351274609566</v>
+        <v>0.2364547252655029</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8828079700469971</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4029887616634369</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1259369254112244</v>
+        <v>0.2302264720201492</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8803999423980713</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.5461243987083435</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05625519901514053</v>
+        <v>0.1117401421070099</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.5173435807228088</v>
       </c>
       <c r="W246" t="n">
-        <v>0.00246914429590106</v>
+        <v>0.1212261542677879</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8805139064788818</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4876772463321686</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1177410557866096</v>
+        <v>0.1543206423521042</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8545551300048828</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4038556218147278</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1160993352532387</v>
+        <v>0.2031300514936447</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8742661476135254</v>
       </c>
       <c r="V249" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8694120645523071</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1174557134509087</v>
+        <v>2.356212280574255e-05</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8637797832489014</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.486123263835907</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1288463175296783</v>
+        <v>0.1426244527101517</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8871269226074219</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.402999073266983</v>
       </c>
       <c r="W251" t="n">
-        <v>0.0543038509786129</v>
+        <v>0.234379768371582</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8672189712524414</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.3975226283073425</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2667068541049957</v>
+        <v>0.2206146568059921</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8709719181060791</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.4038414359092712</v>
       </c>
       <c r="W253" t="n">
-        <v>0.06905011087656021</v>
+        <v>0.2182108908891678</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V254" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8669372200965881</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1618036478757858</v>
+        <v>2.496211436664453e-06</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8794350624084473</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.5511524677276611</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1143287494778633</v>
+        <v>0.1077694594860077</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8668630123138428</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4235041737556458</v>
       </c>
       <c r="W256" t="n">
-        <v>0.08408317714929581</v>
+        <v>0.1965670585632324</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9045901298522949</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.3991400003433228</v>
       </c>
       <c r="W257" t="n">
-        <v>0.0150085436180234</v>
+        <v>0.2554798424243927</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.866131067276001</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4873095750808716</v>
       </c>
       <c r="W258" t="n">
-        <v>0.006920213345438242</v>
+        <v>0.143505722284317</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818769454956055</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4227226078510284</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1186899021267891</v>
+        <v>0.2108227014541626</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8656539916992188</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8722721338272095</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04444621130824089</v>
+        <v>4.379980600788258e-05</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851230144500732</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4039452970027924</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2645935118198395</v>
+        <v>0.2315319925546646</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5272119045257568</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4910758435726166</v>
       </c>
       <c r="W262" t="n">
-        <v>0.002437828574329615</v>
+        <v>0.001305814948864281</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5252559185028076</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4964860677719116</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0002601874875836074</v>
+        <v>0.0008277043234556913</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213489532470703</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5131648778915405</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0004010895499959588</v>
+        <v>6.697908975183964e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4865977764129639</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01929080486297607</v>
+        <v>0.0007783157634548843</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5213770866394043</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4975806474685669</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01385220512747765</v>
+        <v>0.0005662704934366047</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5508368015289307</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4293074011802673</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0004386311338748783</v>
+        <v>0.01476939488202333</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5195109844207764</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4038243293762207</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01776776276528835</v>
+        <v>0.01338340248912573</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5150058269500732</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.5068513154983521</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01241097785532475</v>
+        <v>6.649605347774923e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5207350254058838</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5130525231361389</v>
       </c>
       <c r="W270" t="n">
-        <v>0.001812031958252192</v>
+        <v>5.902084012632258e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521867036819458</v>
       </c>
       <c r="V271" t="n">
-        <v>0.350454181432724</v>
+        <v>0.5083177089691162</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0293823666870594</v>
+        <v>0.0001835842849686742</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6043839454650879</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8885757327079773</v>
       </c>
       <c r="W272" t="n">
-        <v>0.008678125217556953</v>
+        <v>0.08076497167348862</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5248839855194092</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8729872107505798</v>
       </c>
       <c r="W273" t="n">
-        <v>0.07897186279296875</v>
+        <v>0.1211758553981781</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.544395923614502</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8667508959770203</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01980278454720974</v>
+        <v>0.1039127260446548</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5220539569854736</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4020049870014191</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02947492338716984</v>
+        <v>0.01441175490617752</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5163829326629639</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.5139389038085938</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01613735221326351</v>
+        <v>5.973276984150289e-06</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5244660377502441</v>
       </c>
       <c r="V277" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4980553388595581</v>
       </c>
       <c r="W277" t="n">
-        <v>0.1779211908578873</v>
+        <v>0.0006975250435061753</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5222740173339844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3975600302219391</v>
       </c>
       <c r="W278" t="n">
-        <v>7.215646473923698e-05</v>
+        <v>0.01555357873439789</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5194718837738037</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8995606303215027</v>
       </c>
       <c r="W279" t="n">
-        <v>0.00169103522785008</v>
+        <v>0.1444674581289291</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5226271152496338</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.3976493775844574</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0003515383577905595</v>
+        <v>0.01561943534761667</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191450119018555</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.3975586891174316</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02845997549593449</v>
+        <v>0.01478323433548212</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.497606098651886</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1444328874349594</v>
+        <v>0.008809515275061131</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3965978622436523</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8889252543449402</v>
       </c>
       <c r="W283" t="n">
-        <v>0.08636404573917389</v>
+        <v>0.2423862665891647</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V284" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.5412384271621704</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1518339812755585</v>
+        <v>0.02181541733443737</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3990819454193115</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8601149916648865</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01105556637048721</v>
+        <v>0.212551474571228</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3928329944610596</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8851950764656067</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0001158881350420415</v>
+        <v>0.242420420050621</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3912510871887207</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8604969382286072</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06946521997451782</v>
+        <v>0.2201916724443436</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.404757022857666</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4924948811531067</v>
       </c>
       <c r="W288" t="n">
-        <v>0.002738003386184573</v>
+        <v>0.007697931956499815</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4088938236236572</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8870443105697632</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01580494083464146</v>
+        <v>0.2286278903484344</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3934800624847412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.4981383383274078</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0001902844378491864</v>
+        <v>0.01095335464924574</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3988280296325684</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.3975370228290558</v>
       </c>
       <c r="W291" t="n">
-        <v>0.167754203081131</v>
+        <v>1.666698608460138e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.415463924407959</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.5149982571601868</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05621974915266037</v>
+        <v>0.009907083585858345</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.396190881729126</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8700375556945801</v>
       </c>
       <c r="W293" t="n">
-        <v>0.06089568138122559</v>
+        <v>0.2245306670665741</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3955419063568115</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4125752449035645</v>
       </c>
       <c r="W294" t="n">
-        <v>6.635954923694953e-05</v>
+        <v>0.0002901346306316555</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3936030864715576</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4988276362419128</v>
       </c>
       <c r="W295" t="n">
-        <v>0.001834464259445667</v>
+        <v>0.01107220631092787</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4444561004638672</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4913247227668762</v>
       </c>
       <c r="W296" t="n">
-        <v>0.004820308648049831</v>
+        <v>0.002196667715907097</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3945729732513428</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.3975452482700348</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0001797514269128442</v>
+        <v>8.83441862242762e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3963210582733154</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.860606849193573</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002074027666822076</v>
+        <v>0.2155613005161285</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3969969749450684</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8614816069602966</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1653429418802261</v>
+        <v>0.2157459706068039</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3968369960784912</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5080087184906006</v>
       </c>
       <c r="W300" t="n">
-        <v>4.60051633126568e-05</v>
+        <v>0.01235915161669254</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4005329608917236</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4976142048835754</v>
       </c>
       <c r="W301" t="n">
-        <v>0.02574687451124191</v>
+        <v>0.009424768388271332</v>
       </c>
     </row>
     <row r="302" spans="1:23">
